--- a/output/plant_data.xlsx
+++ b/output/plant_data.xlsx
@@ -746,7 +746,7 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>0.56</v>
+        <v>2.0160000000000005</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -766,7 +766,7 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>1.2400000000000002</v>
+        <v>4.464</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -786,7 +786,7 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>1.8800000000000003</v>
+        <v>6.768000000000001</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -806,7 +806,7 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>2.9600000000000004</v>
+        <v>10.656</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -826,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>2.8800000000000003</v>
+        <v>10.368</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -846,7 +846,7 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <v>3.2800000000000002</v>
+        <v>11.808000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <v>1.51</v>
+        <v>5.436</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -886,7 +886,7 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>3.2800000000000002</v>
+        <v>11.808000000000002</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -906,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="F25">
-        <v>7.54</v>
+        <v>27.144000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -926,7 +926,7 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>9.969999999999999</v>
+        <v>35.892</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -946,7 +946,7 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>11.159999999999998</v>
+        <v>40.176</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -966,7 +966,7 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>9.969999999999999</v>
+        <v>35.892</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -986,7 +986,7 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>7.54</v>
+        <v>27.144000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1006,7 +1006,7 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>5.59</v>
+        <v>20.124000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1026,7 +1026,7 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <v>4.640000000000001</v>
+        <v>16.704</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1046,7 +1046,7 @@
         <v>8</v>
       </c>
       <c r="F32">
-        <v>6.27</v>
+        <v>22.572000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1066,7 +1066,7 @@
         <v>8</v>
       </c>
       <c r="F33">
-        <v>10.67</v>
+        <v>38.412000000000006</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1086,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="F34">
-        <v>14.6</v>
+        <v>52.56</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1106,7 +1106,7 @@
         <v>8</v>
       </c>
       <c r="F35">
-        <v>15.79</v>
+        <v>56.844</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1126,7 +1126,7 @@
         <v>8</v>
       </c>
       <c r="F36">
-        <v>18.099999999999998</v>
+        <v>65.16</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1146,7 +1146,7 @@
         <v>8</v>
       </c>
       <c r="F37">
-        <v>11.36</v>
+        <v>40.89600000000001</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1166,7 +1166,7 @@
         <v>8</v>
       </c>
       <c r="F38">
-        <v>10.67</v>
+        <v>38.412000000000006</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1186,7 +1186,7 @@
         <v>8</v>
       </c>
       <c r="F39">
-        <v>11.36</v>
+        <v>40.89600000000001</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1206,7 +1206,7 @@
         <v>8</v>
       </c>
       <c r="F40">
-        <v>10.67</v>
+        <v>38.412000000000006</v>
       </c>
     </row>
   </sheetData>

--- a/output/plant_data.xlsx
+++ b/output/plant_data.xlsx
@@ -45,10 +45,10 @@
     <t>fuel_price</t>
   </si>
   <si>
-    <t>Thermal</t>
+    <t>ramp_rate</t>
   </si>
   <si>
-    <t>Wind</t>
+    <t>Thermal</t>
   </si>
   <si>
     <t>Hydro</t>
@@ -403,13 +403,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAF0E20E-E4D8-9B45-9C94-E89B574F109C}">
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +428,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -443,13 +446,16 @@
         <v>8.0</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F2">
         <v>10.3494</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -463,13 +469,16 @@
         <v>8.0</v>
       </c>
       <c r="E3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F3">
         <v>10.3494</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -483,13 +492,16 @@
         <v>30.0</v>
       </c>
       <c r="E4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F4">
         <v>2.11399</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -503,13 +515,16 @@
         <v>30.0</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>2.11399</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -523,13 +538,16 @@
         <v>8.0</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F6">
         <v>10.3494</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -543,13 +561,16 @@
         <v>8.0</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F7">
         <v>10.3494</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -563,13 +584,16 @@
         <v>30.0</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8">
         <v>2.11399</v>
       </c>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -583,13 +607,16 @@
         <v>30.0</v>
       </c>
       <c r="E9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F9">
         <v>2.11399</v>
       </c>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9">
+        <v>2.0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -603,13 +630,16 @@
         <v>170.0</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F10">
         <v>3.88722</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10">
+        <v>4.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -623,101 +653,116 @@
         <v>22.0</v>
       </c>
       <c r="E11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F11">
         <v>3.88722</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
-        <v>154</v>
+        <v>49900</v>
       </c>
       <c r="B12">
         <v>2</v>
       </c>
       <c r="C12">
-        <v>148.3</v>
+        <v>0.0</v>
       </c>
       <c r="D12">
         <v>0.0</v>
       </c>
       <c r="E12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>0.0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
-        <v>155</v>
+        <v>49901</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
       <c r="C13">
-        <v>799.1</v>
+        <v>11.7</v>
       </c>
       <c r="D13">
         <v>0.0</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F13">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>2.0160000000000005</v>
+      </c>
+      <c r="G13">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
-        <v>156</v>
+        <v>49902</v>
       </c>
       <c r="B14">
         <v>2</v>
       </c>
       <c r="C14">
-        <v>847.0</v>
+        <v>15.0</v>
       </c>
       <c r="D14">
         <v>0.0</v>
       </c>
       <c r="E14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F14">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>4.464</v>
+      </c>
+      <c r="G14">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
-        <v>157</v>
+        <v>49903</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="C15">
-        <v>713.5</v>
+        <v>18.8</v>
       </c>
       <c r="D15">
         <v>0.0</v>
       </c>
       <c r="E15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="F15">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>6.768000000000001</v>
+      </c>
+      <c r="G15">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
-        <v>49900</v>
+        <v>49904</v>
       </c>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16">
-        <v>0.0</v>
+        <v>9.3</v>
       </c>
       <c r="D16">
         <v>0.0</v>
@@ -726,18 +771,21 @@
         <v>8</v>
       </c>
       <c r="F16">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>10.656</v>
+      </c>
+      <c r="G16">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
-        <v>49901</v>
+        <v>49905</v>
       </c>
       <c r="B17">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>11.7</v>
+        <v>27.0</v>
       </c>
       <c r="D17">
         <v>0.0</v>
@@ -746,18 +794,21 @@
         <v>8</v>
       </c>
       <c r="F17">
-        <v>2.0160000000000005</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>10.368</v>
+      </c>
+      <c r="G17">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
-        <v>49902</v>
+        <v>49906</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>15.0</v>
+        <v>123.98</v>
       </c>
       <c r="D18">
         <v>0.0</v>
@@ -766,18 +817,21 @@
         <v>8</v>
       </c>
       <c r="F18">
-        <v>4.464</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>11.808000000000002</v>
+      </c>
+      <c r="G18">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
-        <v>49903</v>
+        <v>49907</v>
       </c>
       <c r="B19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>18.8</v>
+        <v>45.0</v>
       </c>
       <c r="D19">
         <v>0.0</v>
@@ -786,18 +840,21 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <v>6.768000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>5.436</v>
+      </c>
+      <c r="G19">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
-        <v>49904</v>
+        <v>49908</v>
       </c>
       <c r="B20">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>9.3</v>
+        <v>0.0</v>
       </c>
       <c r="D20">
         <v>0.0</v>
@@ -806,18 +863,21 @@
         <v>8</v>
       </c>
       <c r="F20">
-        <v>10.656</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>11.808000000000002</v>
+      </c>
+      <c r="G20">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
-        <v>49905</v>
+        <v>49911</v>
       </c>
       <c r="B21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C21">
-        <v>27.0</v>
+        <v>20.0</v>
       </c>
       <c r="D21">
         <v>0.0</v>
@@ -826,18 +886,21 @@
         <v>8</v>
       </c>
       <c r="F21">
-        <v>10.368</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>27.144000000000002</v>
+      </c>
+      <c r="G21">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
-        <v>49906</v>
+        <v>49912</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C22">
-        <v>123.98</v>
+        <v>7.0</v>
       </c>
       <c r="D22">
         <v>0.0</v>
@@ -846,18 +909,21 @@
         <v>8</v>
       </c>
       <c r="F22">
-        <v>11.808000000000002</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>35.892</v>
+      </c>
+      <c r="G22">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
-        <v>49907</v>
+        <v>49913</v>
       </c>
       <c r="B23">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>45.0</v>
+        <v>1.0</v>
       </c>
       <c r="D23">
         <v>0.0</v>
@@ -866,15 +932,18 @@
         <v>8</v>
       </c>
       <c r="F23">
-        <v>5.436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>40.176</v>
+      </c>
+      <c r="G23">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
-        <v>49908</v>
+        <v>49914</v>
       </c>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24">
         <v>0.0</v>
@@ -886,18 +955,21 @@
         <v>8</v>
       </c>
       <c r="F24">
-        <v>11.808000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>35.892</v>
+      </c>
+      <c r="G24">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
-        <v>49911</v>
+        <v>49915</v>
       </c>
       <c r="B25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="D25">
         <v>0.0</v>
@@ -908,16 +980,19 @@
       <c r="F25">
         <v>27.144000000000002</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
-        <v>49912</v>
+        <v>49920</v>
       </c>
       <c r="B26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C26">
-        <v>7.0</v>
+        <v>66.7</v>
       </c>
       <c r="D26">
         <v>0.0</v>
@@ -926,18 +1001,21 @@
         <v>8</v>
       </c>
       <c r="F26">
-        <v>35.892</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>20.124000000000002</v>
+      </c>
+      <c r="G26">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
-        <v>49913</v>
+        <v>49921</v>
       </c>
       <c r="B27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>1.0</v>
+        <v>32.0</v>
       </c>
       <c r="D27">
         <v>0.0</v>
@@ -946,18 +1024,21 @@
         <v>8</v>
       </c>
       <c r="F27">
-        <v>40.176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>16.704</v>
+      </c>
+      <c r="G27">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
-        <v>49914</v>
+        <v>49922</v>
       </c>
       <c r="B28">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>0.0</v>
+        <v>25.0</v>
       </c>
       <c r="D28">
         <v>0.0</v>
@@ -966,18 +1047,21 @@
         <v>8</v>
       </c>
       <c r="F28">
-        <v>35.892</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>22.572000000000003</v>
+      </c>
+      <c r="G28">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
-        <v>49915</v>
+        <v>49923</v>
       </c>
       <c r="B29">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C29">
-        <v>0.0</v>
+        <v>31.71</v>
       </c>
       <c r="D29">
         <v>0.0</v>
@@ -986,18 +1070,21 @@
         <v>8</v>
       </c>
       <c r="F29">
-        <v>27.144000000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>38.412000000000006</v>
+      </c>
+      <c r="G29">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
-        <v>49920</v>
+        <v>49924</v>
       </c>
       <c r="B30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>66.7</v>
+        <v>175.01</v>
       </c>
       <c r="D30">
         <v>0.0</v>
@@ -1006,18 +1093,21 @@
         <v>8</v>
       </c>
       <c r="F30">
-        <v>20.124000000000002</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>52.56</v>
+      </c>
+      <c r="G30">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
-        <v>49921</v>
+        <v>49925</v>
       </c>
       <c r="B31">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C31">
-        <v>32.0</v>
+        <v>40.0</v>
       </c>
       <c r="D31">
         <v>0.0</v>
@@ -1026,15 +1116,18 @@
         <v>8</v>
       </c>
       <c r="F31">
-        <v>16.704</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>56.844</v>
+      </c>
+      <c r="G31">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
-        <v>49922</v>
+        <v>49927</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C32">
         <v>25.0</v>
@@ -1046,18 +1139,21 @@
         <v>8</v>
       </c>
       <c r="F32">
-        <v>22.572000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>65.16</v>
+      </c>
+      <c r="G32">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
-        <v>49923</v>
+        <v>49928</v>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>31.71</v>
+        <v>2.5</v>
       </c>
       <c r="D33">
         <v>0.0</v>
@@ -1066,38 +1162,44 @@
         <v>8</v>
       </c>
       <c r="F33">
+        <v>40.89600000000001</v>
+      </c>
+      <c r="G33">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34">
+        <v>49929</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>0.0</v>
+      </c>
+      <c r="D34">
+        <v>0.0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>8</v>
+      </c>
+      <c r="F34">
         <v>38.412000000000006</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
-      <c r="A34">
-        <v>49924</v>
-      </c>
-      <c r="B34">
-        <v>3</v>
-      </c>
-      <c r="C34">
-        <v>175.01</v>
-      </c>
-      <c r="D34">
-        <v>0.0</v>
-      </c>
-      <c r="E34" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34">
-        <v>52.56</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
-        <v>49925</v>
+        <v>49930</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>40.0</v>
+        <v>0.0</v>
       </c>
       <c r="D35">
         <v>0.0</v>
@@ -1106,18 +1208,21 @@
         <v>8</v>
       </c>
       <c r="F35">
-        <v>56.844</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>40.89600000000001</v>
+      </c>
+      <c r="G35">
+        <v>100.0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
-        <v>49927</v>
+        <v>49931</v>
       </c>
       <c r="B36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C36">
-        <v>25.0</v>
+        <v>0.0</v>
       </c>
       <c r="D36">
         <v>0.0</v>
@@ -1126,87 +1231,10 @@
         <v>8</v>
       </c>
       <c r="F36">
-        <v>65.16</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37">
-        <v>49928</v>
-      </c>
-      <c r="B37">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>2.5</v>
-      </c>
-      <c r="D37">
-        <v>0.0</v>
-      </c>
-      <c r="E37" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37">
-        <v>40.89600000000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6">
-      <c r="A38">
-        <v>49929</v>
-      </c>
-      <c r="B38">
-        <v>3</v>
-      </c>
-      <c r="C38">
-        <v>0.0</v>
-      </c>
-      <c r="D38">
-        <v>0.0</v>
-      </c>
-      <c r="E38" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38">
         <v>38.412000000000006</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
-      <c r="A39">
-        <v>49930</v>
-      </c>
-      <c r="B39">
-        <v>3</v>
-      </c>
-      <c r="C39">
-        <v>0.0</v>
-      </c>
-      <c r="D39">
-        <v>0.0</v>
-      </c>
-      <c r="E39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39">
-        <v>40.89600000000001</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40">
-        <v>49931</v>
-      </c>
-      <c r="B40">
-        <v>3</v>
-      </c>
-      <c r="C40">
-        <v>0.0</v>
-      </c>
-      <c r="D40">
-        <v>0.0</v>
-      </c>
-      <c r="E40" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40">
-        <v>38.412000000000006</v>
+      <c r="G36">
+        <v>100.0</v>
       </c>
     </row>
   </sheetData>
